--- a/Reports/Frontier Direct Campaign Report.xlsx
+++ b/Reports/Frontier Direct Campaign Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zato/Documents/7BM/Clients/frontierdirectcare/Reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5C8495-5462-B04F-8B85-B9AA017C421F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2083D94C-2D59-444E-A0BE-4DA189ABC9B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="500" windowWidth="27640" windowHeight="16440" xr2:uid="{01A8F86F-6C45-5A49-986C-6FE0C12938CC}"/>
+    <workbookView xWindow="420" yWindow="500" windowWidth="20940" windowHeight="11940" xr2:uid="{01A8F86F-6C45-5A49-986C-6FE0C12938CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Referal" sheetId="1" r:id="rId1"/>
@@ -466,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F2FD9BA-3458-F54A-B23D-13D8DA1C2F6D}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -564,10 +564,10 @@
         <v>604</v>
       </c>
       <c r="D3" s="1">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="E3" s="1">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -610,10 +610,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="1">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="C6" s="1">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D6" s="1">
         <v>19</v>
@@ -635,7 +635,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -671,16 +671,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>283</v>
+        <v>307</v>
       </c>
       <c r="C2" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E2" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F2" s="1">
         <v>4</v>
@@ -696,7 +696,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -828,16 +828,16 @@
         <v>593</v>
       </c>
       <c r="D4" s="1">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="E4" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
@@ -877,19 +877,19 @@
         <v>1</v>
       </c>
       <c r="B7" s="1">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="C7" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
